--- a/biology/Zoologie/Eurema_messalina/Eurema_messalina.xlsx
+++ b/biology/Zoologie/Eurema_messalina/Eurema_messalina.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eurema messalina est un insecte lépidoptère de la famille des Pieridae, de la sous-famille des Coliadinae et du genre Eurema.
 </t>
@@ -511,12 +523,12 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Eurema messalina a été décrit par Fabricius en 1787 sous le nom initial de Papilio messalina.
-Synonyme : Terias bulaea Boisduval, 1836; Terias gnathene Boisduval, 1836; Terias iradia Poey, [1852]; Terias blakei Maynard, 1891; Pyrisitia messalina[1]..
-Nom vernaculaire
-Eurema messalina se nomme Shy Yellow en anglais[2].
+Synonyme : Terias bulaea Boisduval, 1836; Terias gnathene Boisduval, 1836; Terias iradia Poey, ; Terias blakei Maynard, 1891; Pyrisitia messalina..
 </t>
         </is>
       </c>
@@ -542,13 +554,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Eurema messalina, d'une envergure de 26 mm à 38 mm présente sur le dessus des ailes blanches bordées finement de marron chez le mâle, uniquement au niveau de l'apex des ailes antérieures chez la femelle.
-Le revers est blanc avec une marque rose chez le mâle[2].
+          <t>Nom vernaculaire</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eurema messalina se nomme Shy Yellow en anglais.
 </t>
         </is>
       </c>
@@ -574,14 +591,15 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'imago vole surtout entre mai et août.
-Plantes hôtes
-Les plantes hôtes de sa chenille sont des Desmodium et des Cassia[2].
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eurema messalina, d'une envergure de 26 mm à 38 mm présente sur le dessus des ailes blanches bordées finement de marron chez le mâle, uniquement au niveau de l'apex des ailes antérieures chez la femelle.
+Le revers est blanc avec une marque rose chez le mâle.
 </t>
         </is>
       </c>
@@ -607,18 +625,160 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'imago vole surtout entre mai et août.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Eurema_messalina</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eurema_messalina</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes hôtes de sa chenille sont des Desmodium et des Cassia.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Eurema_messalina</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eurema_messalina</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Eurema messalina est présent à Cuba, à la Jamaïque, aux Antilles, aux Bahamas et en Floride[1].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eurema messalina est présent à Cuba, à la Jamaïque, aux Antilles, aux Bahamas et en Floride.
 Sur les autres projets Wikimedia :
 Eurema messalina, sur Wikimedia CommonsEurema messalina, sur Wikispecies
-BiotOpe
-Il réside dans les zones broussailleuses[3].
-Protection
-Pas de statut de protection particulier.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Eurema_messalina</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eurema_messalina</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>BiotOpe</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside dans les zones broussailleuses.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Eurema_messalina</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eurema_messalina</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 </t>
         </is>
       </c>
